--- a/tests/data/actual-file_example.xlsx
+++ b/tests/data/actual-file_example.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="demo_sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="demo_sheet (2)" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -1375,4 +1376,704 @@
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="13.576428571428572"/>
+    <col bestFit="1" customWidth="1" min="2" max="5" style="2" width="13.576428571428572"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" style="1" width="13.576428571428572"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" style="2" width="13.576428571428572"/>
+    <col bestFit="1" customWidth="1" min="8" max="8" style="1" width="13.576428571428572"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="3">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6">
+        <v>32</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6">
+        <v>25</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6">
+        <v>36</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6">
+        <v>25</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="6">
+        <v>3549</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6">
+        <v>58</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>24</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6">
+        <v>56</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6">
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6">
+        <v>27</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="6">
+        <v>40</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="6">
+        <v>6548</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" ht="18.75" customHeight="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" ht="18.75" customHeight="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" ht="18.75" customHeight="1">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" ht="18.75" customHeight="1">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" ht="18.75" customHeight="1">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" ht="18.75" customHeight="1">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" ht="18.75" customHeight="1">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" ht="18.75" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" ht="18.75" customHeight="1">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" ht="18.75" customHeight="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" ht="18.75" customHeight="1">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" ht="18.75" customHeight="1">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" ht="18.75" customHeight="1">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" ht="18.75" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" ht="18.75" customHeight="1">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" ht="18.75" customHeight="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" ht="18.75" customHeight="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" ht="18.75" customHeight="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" ht="18.75" customHeight="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" ht="18.75" customHeight="1">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>